--- a/assets/data_source.xlsx
+++ b/assets/data_source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\AutoDPM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\autoDPM\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F743A5F-01FF-403F-8E9D-5DAC513DE531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ACF2A2-81F8-43AC-B286-F19488CA1731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F463CFC1-CD10-49F2-A949-991F9533FACC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="292">
   <si>
     <t>ED-49845</t>
   </si>
@@ -1235,14 +1235,27 @@
     <t>unidade</t>
   </si>
   <si>
-    <t>valor_unit</t>
+    <t>quantidade</t>
+  </si>
+  <si>
+    <t>inserido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,13 +1281,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda 2" xfId="1" xr:uid="{E3A1AFAD-983B-433E-823B-DF3D996A686E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1291,20 +1306,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC51132B-CD56-424F-8725-6B09E8E7C705}" name="Tabela2" displayName="Tabela2" ref="A1:D142" totalsRowShown="0">
-  <autoFilter ref="A1:D142" xr:uid="{CC51132B-CD56-424F-8725-6B09E8E7C705}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F8E05DD6-CC6D-4899-8471-CB8B12F20BA1}" name="codigo_ed"/>
-    <tableColumn id="2" xr3:uid="{5B8D3955-A3C7-4EA7-ACA4-2BF2551DA22D}" name="descricao"/>
-    <tableColumn id="3" xr3:uid="{A651F0D3-026D-4E86-B9D4-D55A5FBF97B6}" name="unidade"/>
-    <tableColumn id="4" xr3:uid="{0EA37810-9046-4D30-A171-7038B654A82E}" name="valor_unit"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1364AE9-FD18-4AD4-A340-04D4E50E0514}" name="Table2" displayName="Table2" ref="A1:E142" totalsRowShown="0">
+  <autoFilter ref="A1:E142" xr:uid="{C1364AE9-FD18-4AD4-A340-04D4E50E0514}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8F1BAE54-C8B3-4B44-9EAF-2D22AD5F5C36}" name="codigo_ed"/>
+    <tableColumn id="3" xr3:uid="{6DDBDD29-97BE-46FD-BFF5-12A8360B62F2}" name="descricao"/>
+    <tableColumn id="4" xr3:uid="{8F0A749B-D757-4C9C-9F9D-5363C16F4A37}" name="unidade"/>
+    <tableColumn id="5" xr3:uid="{326346AC-547D-49B5-A4D3-5C8DC8FC022B}" name="quantidade"/>
+    <tableColumn id="6" xr3:uid="{4B9E55BC-2983-436A-971F-C8469C6CED2B}" name="inserido"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1620,21 +1636,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00342AD-FAFF-4C7E-ACFE-06B6C92D80E6}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>287</v>
       </c>
@@ -1647,722 +1663,878 @@
       <c r="D1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>19.8</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>104.45</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>157</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>157</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>3.92</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10.08</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>194.07</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>125.88</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>217.52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>49.4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2550.12</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>49.11</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>18.96</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>46.85</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>365.8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>2.12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>217.52</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>640</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1.55</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>50.4</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1583.63</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1583.63</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1458.27</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1616.27</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1883.27</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>189.52</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>110</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>123.4</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>1980.5</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>275</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <v>1583.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="D29">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D46">
+        <v>5.25</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B47" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>453.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34">
-        <v>2550.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38">
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40">
-        <v>49.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41">
-        <v>194.07</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>215.54</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>370.75</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168.66</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>421.15</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -2375,657 +2547,672 @@
       <c r="D53">
         <v>421.15</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54">
-        <v>1616.27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>421.15</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63.35</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D56">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44.1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>104.45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>104.15</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D59">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
       <c r="D60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C63" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>49.11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>5.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>1980.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
         <v>26</v>
       </c>
       <c r="D69">
-        <v>60</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D70">
-        <v>4.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>104.15</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D74">
-        <v>63.35</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>370.75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>13.95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>50.4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>22.72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>365.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>453</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
         <v>26</v>
       </c>
       <c r="D81">
-        <v>70</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D82">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C84" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>301.10000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>18.96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>1883.27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D91">
-        <v>421.15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D98">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3036,150 +3223,150 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D105">
-        <v>168.66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>27</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>276</v>
       </c>
       <c r="C107" t="s">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D108">
-        <v>421.15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1458.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>221</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="C111" t="s">
         <v>2</v>
@@ -3190,10 +3377,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="C112" t="s">
         <v>2</v>
@@ -3204,332 +3391,332 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>1583.63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="B120" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
       </c>
       <c r="D120">
-        <v>157</v>
+        <v>36.28</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121">
-        <v>10.08</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>125.88</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D124">
-        <v>123.4</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125">
-        <v>189.52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>44.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>26.48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>215.54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132">
-        <v>2.9119999999999999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>19.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="C136" t="s">
         <v>2</v>
@@ -3540,92 +3727,93 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D137">
-        <v>11</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>279</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>1.55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D141">
-        <v>36.28</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>46.85</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/data_source.xlsx
+++ b/assets/data_source.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\autoDPM\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ACF2A2-81F8-43AC-B286-F19488CA1731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC73720-80AB-4CEC-9C15-EC89F289ECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F463CFC1-CD10-49F2-A949-991F9533FACC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="sheeto2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="293">
   <si>
     <t>ED-49845</t>
   </si>
@@ -1239,6 +1240,9 @@
   </si>
   <si>
     <t>inserido</t>
+  </si>
+  <si>
+    <t>valor_unit</t>
   </si>
 </sst>
 </file>
@@ -1306,6 +1310,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6CAE44D-AA59-4AE7-8EAF-F60D0913CDDD}" name="Table1" displayName="Table1" ref="A1:F142" totalsRowShown="0">
+  <autoFilter ref="A1:F142" xr:uid="{D6CAE44D-AA59-4AE7-8EAF-F60D0913CDDD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7B23371C-BF89-45E0-853F-FAC49E828E89}" name="codigo_ed"/>
+    <tableColumn id="2" xr3:uid="{E9D4DE02-9EB5-42FA-88B1-6ED5912A9298}" name="descricao"/>
+    <tableColumn id="3" xr3:uid="{370B1151-BEBB-4183-A935-AF5EC5266044}" name="unidade"/>
+    <tableColumn id="4" xr3:uid="{4F5B5FC8-861A-40BC-A563-BBC335AD89B6}" name="quantidade"/>
+    <tableColumn id="5" xr3:uid="{E46AA145-CA13-473F-B1A6-9AA5235604A0}" name="inserido"/>
+    <tableColumn id="6" xr3:uid="{0B4E20F9-1810-4B71-8DD4-6AA0093B712D}" name="valor_unit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1364AE9-FD18-4AD4-A340-04D4E50E0514}" name="Table2" displayName="Table2" ref="A1:E142" totalsRowShown="0">
   <autoFilter ref="A1:E142" xr:uid="{C1364AE9-FD18-4AD4-A340-04D4E50E0514}"/>
   <tableColumns count="5">
@@ -1635,11 +1654,2465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD121-A713-4062-962F-B54B8D601976}">
+  <dimension ref="A1:F142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3852.131903872415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>320.59622896018902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>842.11240110787139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>78.811212582019152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>19.8</v>
+      </c>
+      <c r="F6">
+        <v>85.335154364291398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>104.45</v>
+      </c>
+      <c r="F7">
+        <v>56.482616424720284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="F8">
+        <v>68.083507165663264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>157</v>
+      </c>
+      <c r="F9">
+        <v>31.634256902184326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <v>6.5613640104688313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>157</v>
+      </c>
+      <c r="F11">
+        <v>34.041753582831632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>7.8586679212839616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>3.92</v>
+      </c>
+      <c r="F13">
+        <v>147.40615686636917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10.08</v>
+      </c>
+      <c r="F14">
+        <v>12.74850573897176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>194.07</v>
+      </c>
+      <c r="F15">
+        <v>22.665396211068188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>125.88</v>
+      </c>
+      <c r="F16">
+        <v>2.9438819514651029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>60.773698591262637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>49.4</v>
+      </c>
+      <c r="F18">
+        <v>10.004209004555138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>137.78864421984545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>2550.12</v>
+      </c>
+      <c r="F20">
+        <v>17.388862035348954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>49.11</v>
+      </c>
+      <c r="F21">
+        <v>872.16245034973326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>18.96</v>
+      </c>
+      <c r="F22">
+        <v>4109.3598264197117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>46.85</v>
+      </c>
+      <c r="F23">
+        <v>2769.4195236125988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>365.8</v>
+      </c>
+      <c r="F24">
+        <v>300.70007763566855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>2.12</v>
+      </c>
+      <c r="F25">
+        <v>3447.5726689151429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>217.52</v>
+      </c>
+      <c r="F26">
+        <v>114.83634425927008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>640</v>
+      </c>
+      <c r="F27">
+        <v>87.817495501331891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>1.55</v>
+      </c>
+      <c r="F28">
+        <v>4262.104887842127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>50.4</v>
+      </c>
+      <c r="F29">
+        <v>41.301665852970153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="F30">
+        <v>432.03962452963498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>379.98530510817784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1583.63</v>
+      </c>
+      <c r="F32">
+        <v>12.511498293726687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>1583.63</v>
+      </c>
+      <c r="F33">
+        <v>48.299622525732538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>1458.27</v>
+      </c>
+      <c r="F34">
+        <v>9.5052459619339338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>1616.27</v>
+      </c>
+      <c r="F35">
+        <v>19.858729096323916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1883.27</v>
+      </c>
+      <c r="F36">
+        <v>20.382640291076179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>189.52</v>
+      </c>
+      <c r="F37">
+        <v>93.830000164917394</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>110</v>
+      </c>
+      <c r="F38">
+        <v>26.183085661547672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>123.4</v>
+      </c>
+      <c r="F39">
+        <v>176.95724306560999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>1980.5</v>
+      </c>
+      <c r="F40">
+        <v>29.56356027530633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>275</v>
+      </c>
+      <c r="F41">
+        <v>117.39352985270375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>74.856930469246109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s">
+        <v>264</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>37.759028250359606</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>116.69498159303406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1121.0951123134521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46">
+        <v>5.25</v>
+      </c>
+      <c r="F46">
+        <v>872.16245034973326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>453.6</v>
+      </c>
+      <c r="F47">
+        <v>57.305905445045262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>215.54</v>
+      </c>
+      <c r="F48">
+        <v>140.19614090049276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>370.75</v>
+      </c>
+      <c r="F49">
+        <v>73.085611667940839</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>301.10000000000002</v>
+      </c>
+      <c r="F50">
+        <v>23.064566645165147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>168.66</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>157.39789179485877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>421.15</v>
+      </c>
+      <c r="F52">
+        <v>8.5073198766915272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>421.15</v>
+      </c>
+      <c r="F53">
+        <v>25.085366967781024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>421.15</v>
+      </c>
+      <c r="F54">
+        <v>25.59680408646776</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>63.35</v>
+      </c>
+      <c r="F55">
+        <v>204.73701046354549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>44.1</v>
+      </c>
+      <c r="F56">
+        <v>467.25394126262637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>104.15</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>248.73307674667015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>13.95</v>
+      </c>
+      <c r="F58">
+        <v>74.083537753183251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>573.47069896061521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>54</v>
+      </c>
+      <c r="F60">
+        <v>80.170886873161933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>166.25448580138513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>1035.5229505039156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>234.18830405426206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>340.03083947028489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>89.563866150506101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>38</v>
+      </c>
+      <c r="F66">
+        <v>323.40289607493332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>101</v>
+      </c>
+      <c r="F67">
+        <v>191.92613434424609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>96</v>
+      </c>
+      <c r="F68">
+        <v>378.60068266490396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69">
+        <v>250</v>
+      </c>
+      <c r="F69">
+        <v>3.8919117324453905</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70">
+        <v>400</v>
+      </c>
+      <c r="F70">
+        <v>5.7380749901438444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71">
+        <v>180</v>
+      </c>
+      <c r="F71">
+        <v>7.8586679212839616</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72">
+        <v>210</v>
+      </c>
+      <c r="F72">
+        <v>10.964712861600955</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73">
+        <v>120</v>
+      </c>
+      <c r="F73">
+        <v>19.122758608457641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74">
+        <v>200</v>
+      </c>
+      <c r="F74">
+        <v>42.037636340836436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>222.02607989037023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>54.436867949973347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>63.867269455514105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>22.815085123854548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>24.249603871390512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="F80">
+        <v>11.875320414384653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81">
+        <v>150</v>
+      </c>
+      <c r="F81">
+        <v>16.266195189451246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>40.066732322482672</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="F83">
+        <v>207.38151458943787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>150</v>
+      </c>
+      <c r="F84">
+        <v>7.6341345521044195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>39</v>
+      </c>
+      <c r="F85">
+        <v>3.1060449403169947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>19</v>
+      </c>
+      <c r="F86">
+        <v>220.64145744709637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>413.51562157232274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>184.6786961501731</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>43.37236247984815</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>116.00890740942991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>60</v>
+      </c>
+      <c r="F91">
+        <v>55.584482948002119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>309.07018267563922</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>1313.5202097003194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>2439.0311449409687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>121.17317490055937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>31.260034620218423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>28.889960167767708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98">
+        <v>70</v>
+      </c>
+      <c r="F98">
+        <v>31.197664239890777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>128.63267238774637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>50.270526544086287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>756.35312815735199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1349.4455487690459</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>195.60598678357746</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>597.29618424577768</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>42</v>
+      </c>
+      <c r="F105">
+        <v>57.318379521110799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>10.55</v>
+      </c>
+      <c r="F106">
+        <v>618.50211355717886</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" t="s">
+        <v>276</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>149.37706088472291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+      <c r="F108">
+        <v>519.63258666178729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>232.91594829557798</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>694.59397755691248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>279</v>
+      </c>
+      <c r="B111" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>86.595036046909939</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>231.54379992836968</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>267</v>
+      </c>
+      <c r="B113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1135.2781367999596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>472.48057913408348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>295.77281758978415</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>185</v>
+      </c>
+      <c r="B116" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116">
+        <v>21</v>
+      </c>
+      <c r="F116">
+        <v>13.110253944872133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>298.66680323698711</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>249.03245457224284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>27</v>
+      </c>
+      <c r="F119">
+        <v>1488.1697486938062</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120">
+        <v>36.28</v>
+      </c>
+      <c r="F120">
+        <v>369.13285893116665</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>22.72</v>
+      </c>
+      <c r="F121">
+        <v>1179.3240993873465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>27</v>
+      </c>
+      <c r="F122">
+        <v>158.23365489124927</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>215</v>
+      </c>
+      <c r="B123" t="s">
+        <v>216</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>2912.3599612475086</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" t="s">
+        <v>128</v>
+      </c>
+      <c r="D124">
+        <v>208</v>
+      </c>
+      <c r="F124">
+        <v>15.592595081912622</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B125" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>104</v>
+      </c>
+      <c r="F125">
+        <v>11.800475957991473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <v>273.44422143248528</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>127.54742777004525</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>168</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>38</v>
+      </c>
+      <c r="F128">
+        <v>35.56359086282631</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>22</v>
+      </c>
+      <c r="F129">
+        <v>21.954373875332973</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>23.151885177623861</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>284.8081047281832</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" t="s">
+        <v>188</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>24</v>
+      </c>
+      <c r="F132">
+        <v>28.553160113998395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>43.37236247984815</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>99.792608524240777</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" t="s">
+        <v>196</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>20.432536595338298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>61.122972721097476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>170</v>
+      </c>
+      <c r="F137">
+        <v>30.212212230713895</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>255</v>
+      </c>
+      <c r="B138" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>26.48</v>
+      </c>
+      <c r="F138">
+        <v>239.15298632834302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>116.00890740942991</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>742.20752589904077</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F141">
+        <v>673.83711498387038</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>453</v>
+      </c>
+      <c r="F142">
+        <v>10.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00342AD-FAFF-4C7E-ACFE-06B6C92D80E6}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E146" sqref="A1:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,6 +5105,9 @@
       <c r="D58">
         <v>13.95</v>
       </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -2646,6 +5122,9 @@
       <c r="D59">
         <v>4</v>
       </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -2660,6 +5139,9 @@
       <c r="D60">
         <v>54</v>
       </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -2674,6 +5156,9 @@
       <c r="D61">
         <v>18</v>
       </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2688,6 +5173,9 @@
       <c r="D62">
         <v>2</v>
       </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -2702,6 +5190,9 @@
       <c r="D63">
         <v>1</v>
       </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2716,8 +5207,11 @@
       <c r="D64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -2730,8 +5224,11 @@
       <c r="D65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -2744,8 +5241,11 @@
       <c r="D66">
         <v>38</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -2758,8 +5258,11 @@
       <c r="D67">
         <v>101</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -2772,8 +5275,11 @@
       <c r="D68">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -2786,8 +5292,11 @@
       <c r="D69">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>29</v>
       </c>
@@ -2800,8 +5309,11 @@
       <c r="D70">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -2814,8 +5326,11 @@
       <c r="D71">
         <v>180</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2828,8 +5343,11 @@
       <c r="D72">
         <v>210</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -2842,8 +5360,11 @@
       <c r="D73">
         <v>120</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>31</v>
       </c>
@@ -2856,8 +5377,11 @@
       <c r="D74">
         <v>200</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -2870,8 +5394,11 @@
       <c r="D75">
         <v>29</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>85</v>
       </c>
@@ -2884,8 +5411,11 @@
       <c r="D76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -2898,8 +5428,11 @@
       <c r="D77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -2912,8 +5445,11 @@
       <c r="D78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -2926,8 +5462,11 @@
       <c r="D79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -2940,8 +5479,11 @@
       <c r="D80">
         <v>200</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -2954,8 +5496,11 @@
       <c r="D81">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -2968,8 +5513,11 @@
       <c r="D82">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -2982,8 +5530,11 @@
       <c r="D83">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -2996,8 +5547,11 @@
       <c r="D84">
         <v>150</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -3010,8 +5564,11 @@
       <c r="D85">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>199</v>
       </c>
@@ -3024,8 +5581,11 @@
       <c r="D86">
         <v>19</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -3038,8 +5598,11 @@
       <c r="D87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -3052,8 +5615,11 @@
       <c r="D88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>225</v>
       </c>
@@ -3066,8 +5632,11 @@
       <c r="D89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>49</v>
       </c>
@@ -3080,8 +5649,11 @@
       <c r="D90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>139</v>
       </c>
@@ -3094,8 +5666,11 @@
       <c r="D91">
         <v>60</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +5683,11 @@
       <c r="D92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>43</v>
       </c>
@@ -3122,8 +5700,11 @@
       <c r="D93">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -3136,8 +5717,11 @@
       <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>233</v>
       </c>
@@ -3150,8 +5734,11 @@
       <c r="D95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>231</v>
       </c>
@@ -3164,8 +5751,11 @@
       <c r="D96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3178,8 +5768,11 @@
       <c r="D97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -3192,8 +5785,11 @@
       <c r="D98">
         <v>70</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -3206,8 +5802,11 @@
       <c r="D99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3220,8 +5819,11 @@
       <c r="D100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3234,8 +5836,11 @@
       <c r="D101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3248,8 +5853,11 @@
       <c r="D102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -3262,8 +5870,11 @@
       <c r="D103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -3276,8 +5887,11 @@
       <c r="D104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>259</v>
       </c>
@@ -3290,8 +5904,11 @@
       <c r="D105">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3304,8 +5921,11 @@
       <c r="D106">
         <v>10.55</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>275</v>
       </c>
@@ -3318,8 +5938,11 @@
       <c r="D107">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -3332,8 +5955,11 @@
       <c r="D108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>118</v>
       </c>
@@ -3346,8 +5972,11 @@
       <c r="D109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3360,8 +5989,11 @@
       <c r="D110">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>279</v>
       </c>
@@ -3374,8 +6006,11 @@
       <c r="D111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>277</v>
       </c>
@@ -3388,8 +6023,11 @@
       <c r="D112">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>267</v>
       </c>
@@ -3402,8 +6040,11 @@
       <c r="D113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -3416,8 +6057,11 @@
       <c r="D114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -3430,8 +6074,11 @@
       <c r="D115">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>185</v>
       </c>
@@ -3444,8 +6091,11 @@
       <c r="D116">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -3458,8 +6108,11 @@
       <c r="D117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -3472,8 +6125,11 @@
       <c r="D118">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>213</v>
       </c>
@@ -3486,8 +6142,11 @@
       <c r="D119">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -3500,8 +6159,11 @@
       <c r="D120">
         <v>36.28</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>157</v>
       </c>
@@ -3514,8 +6176,11 @@
       <c r="D121">
         <v>22.72</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3528,8 +6193,11 @@
       <c r="D122">
         <v>27</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>215</v>
       </c>
@@ -3542,8 +6210,11 @@
       <c r="D123">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3556,8 +6227,11 @@
       <c r="D124">
         <v>208</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>171</v>
       </c>
@@ -3571,7 +6245,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -3585,7 +6259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>271</v>
       </c>
@@ -3599,7 +6273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -3613,7 +6287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>189</v>
       </c>
@@ -3627,7 +6301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -3641,7 +6315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>122</v>
       </c>
@@ -3655,7 +6329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -3669,7 +6343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>193</v>
       </c>
@@ -3683,7 +6357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -3697,7 +6371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>195</v>
       </c>
@@ -3711,7 +6385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -3725,7 +6399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>261</v>
       </c>
@@ -3739,7 +6413,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -3753,7 +6427,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -3766,8 +6440,11 @@
       <c r="D139">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -3780,8 +6457,11 @@
       <c r="D140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>79</v>
       </c>
@@ -3795,7 +6475,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>161</v>
       </c>

--- a/assets/data_source.xlsx
+++ b/assets/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\autoDPM\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC73720-80AB-4CEC-9C15-EC89F289ECAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F70DE8D-E059-44C4-9223-DF1FCDB3E2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F463CFC1-CD10-49F2-A949-991F9533FACC}"/>
   </bookViews>
@@ -1249,8 +1249,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1289,14 +1290,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda 2" xfId="1" xr:uid="{E3A1AFAD-983B-433E-823B-DF3D996A686E}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.0000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1318,7 +1324,7 @@
     <tableColumn id="3" xr3:uid="{370B1151-BEBB-4183-A935-AF5EC5266044}" name="unidade"/>
     <tableColumn id="4" xr3:uid="{4F5B5FC8-861A-40BC-A563-BBC335AD89B6}" name="quantidade"/>
     <tableColumn id="5" xr3:uid="{E46AA145-CA13-473F-B1A6-9AA5235604A0}" name="inserido"/>
-    <tableColumn id="6" xr3:uid="{0B4E20F9-1810-4B71-8DD4-6AA0093B712D}" name="valor_unit"/>
+    <tableColumn id="6" xr3:uid="{0B4E20F9-1810-4B71-8DD4-6AA0093B712D}" name="valor_unit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,15 +1661,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CD121-A713-4062-962F-B54B8D601976}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,7 +1694,7 @@
       <c r="E1" t="s">
         <v>291</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -1702,7 +1714,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>3852.131903872415</v>
       </c>
     </row>
@@ -1719,7 +1731,10 @@
       <c r="D3">
         <v>4.5</v>
       </c>
-      <c r="F3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>320.59622896018902</v>
       </c>
     </row>
@@ -1736,7 +1751,10 @@
       <c r="D4">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>842.11240110787139</v>
       </c>
     </row>
@@ -1753,7 +1771,10 @@
       <c r="D5">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>78.811212582019152</v>
       </c>
     </row>
@@ -1770,7 +1791,10 @@
       <c r="D6">
         <v>19.8</v>
       </c>
-      <c r="F6">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>85.335154364291398</v>
       </c>
     </row>
@@ -1787,7 +1811,10 @@
       <c r="D7">
         <v>104.45</v>
       </c>
-      <c r="F7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>56.482616424720284</v>
       </c>
     </row>
@@ -1804,7 +1831,10 @@
       <c r="D8">
         <v>33</v>
       </c>
-      <c r="F8">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>68.083507165663264</v>
       </c>
     </row>
@@ -1821,7 +1851,10 @@
       <c r="D9">
         <v>157</v>
       </c>
-      <c r="F9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>31.634256902184326</v>
       </c>
     </row>
@@ -1838,7 +1871,10 @@
       <c r="D10">
         <v>37</v>
       </c>
-      <c r="F10">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>6.5613640104688313</v>
       </c>
     </row>
@@ -1855,7 +1891,10 @@
       <c r="D11">
         <v>157</v>
       </c>
-      <c r="F11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>34.041753582831632</v>
       </c>
     </row>
@@ -1872,7 +1911,10 @@
       <c r="D12">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>7.8586679212839616</v>
       </c>
     </row>
@@ -1889,7 +1931,10 @@
       <c r="D13">
         <v>3.92</v>
       </c>
-      <c r="F13">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>147.40615686636917</v>
       </c>
     </row>
@@ -1906,7 +1951,10 @@
       <c r="D14">
         <v>10.08</v>
       </c>
-      <c r="F14">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>12.74850573897176</v>
       </c>
     </row>
@@ -1923,7 +1971,10 @@
       <c r="D15">
         <v>194.07</v>
       </c>
-      <c r="F15">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
         <v>22.665396211068188</v>
       </c>
     </row>
@@ -1940,7 +1991,10 @@
       <c r="D16">
         <v>125.88</v>
       </c>
-      <c r="F16">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
         <v>2.9438819514651029</v>
       </c>
     </row>
@@ -1957,7 +2011,7 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>60.773698591262637</v>
       </c>
     </row>
@@ -1974,7 +2028,7 @@
       <c r="D18">
         <v>49.4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>10.004209004555138</v>
       </c>
     </row>
@@ -1991,7 +2045,7 @@
       <c r="D19">
         <v>96</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>137.78864421984545</v>
       </c>
     </row>
@@ -2008,7 +2062,7 @@
       <c r="D20">
         <v>2550.12</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>17.388862035348954</v>
       </c>
     </row>
@@ -2025,7 +2079,7 @@
       <c r="D21">
         <v>49.11</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>872.16245034973326</v>
       </c>
     </row>
@@ -2042,7 +2096,7 @@
       <c r="D22">
         <v>18.96</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>4109.3598264197117</v>
       </c>
     </row>
@@ -2059,7 +2113,7 @@
       <c r="D23">
         <v>46.85</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>2769.4195236125988</v>
       </c>
     </row>
@@ -2076,7 +2130,7 @@
       <c r="D24">
         <v>365.8</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>300.70007763566855</v>
       </c>
     </row>
@@ -2093,7 +2147,7 @@
       <c r="D25">
         <v>2.12</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>3447.5726689151429</v>
       </c>
     </row>
@@ -2110,7 +2164,7 @@
       <c r="D26">
         <v>217.52</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>114.83634425927008</v>
       </c>
     </row>
@@ -2127,7 +2181,7 @@
       <c r="D27">
         <v>640</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>87.817495501331891</v>
       </c>
     </row>
@@ -2144,7 +2198,7 @@
       <c r="D28">
         <v>1.55</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>4262.104887842127</v>
       </c>
     </row>
@@ -2161,7 +2215,7 @@
       <c r="D29">
         <v>50.4</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>41.301665852970153</v>
       </c>
     </row>
@@ -2178,7 +2232,7 @@
       <c r="D30">
         <v>2.9119999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>432.03962452963498</v>
       </c>
     </row>
@@ -2195,7 +2249,7 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>379.98530510817784</v>
       </c>
     </row>
@@ -2212,7 +2266,7 @@
       <c r="D32">
         <v>1583.63</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>12.511498293726687</v>
       </c>
     </row>
@@ -2229,7 +2283,7 @@
       <c r="D33">
         <v>1583.63</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>48.299622525732538</v>
       </c>
     </row>
@@ -2246,7 +2300,7 @@
       <c r="D34">
         <v>1458.27</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>9.5052459619339338</v>
       </c>
     </row>
@@ -2263,7 +2317,7 @@
       <c r="D35">
         <v>1616.27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>19.858729096323916</v>
       </c>
     </row>
@@ -2280,7 +2334,7 @@
       <c r="D36">
         <v>1883.27</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>20.382640291076179</v>
       </c>
     </row>
@@ -2297,7 +2351,7 @@
       <c r="D37">
         <v>189.52</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>93.830000164917394</v>
       </c>
     </row>
@@ -2314,7 +2368,7 @@
       <c r="D38">
         <v>110</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>26.183085661547672</v>
       </c>
     </row>
@@ -2331,7 +2385,7 @@
       <c r="D39">
         <v>123.4</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>176.95724306560999</v>
       </c>
     </row>
@@ -2348,7 +2402,7 @@
       <c r="D40">
         <v>1980.5</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>29.56356027530633</v>
       </c>
     </row>
@@ -2365,7 +2419,7 @@
       <c r="D41">
         <v>275</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>117.39352985270375</v>
       </c>
     </row>
@@ -2382,7 +2436,7 @@
       <c r="D42">
         <v>62</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>74.856930469246109</v>
       </c>
     </row>
@@ -2399,7 +2453,7 @@
       <c r="D43">
         <v>48</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>37.759028250359606</v>
       </c>
     </row>
@@ -2416,7 +2470,7 @@
       <c r="D44">
         <v>96</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>116.69498159303406</v>
       </c>
     </row>
@@ -2433,7 +2487,7 @@
       <c r="D45">
         <v>5</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>1121.0951123134521</v>
       </c>
     </row>
@@ -2450,7 +2504,7 @@
       <c r="D46">
         <v>5.25</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>872.16245034973326</v>
       </c>
     </row>
@@ -2467,7 +2521,7 @@
       <c r="D47">
         <v>453.6</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>57.305905445045262</v>
       </c>
     </row>
@@ -2484,7 +2538,7 @@
       <c r="D48">
         <v>215.54</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>140.19614090049276</v>
       </c>
     </row>
@@ -2501,7 +2555,7 @@
       <c r="D49">
         <v>370.75</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>73.085611667940839</v>
       </c>
     </row>
@@ -2518,7 +2572,7 @@
       <c r="D50">
         <v>301.10000000000002</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>23.064566645165147</v>
       </c>
     </row>
@@ -2538,7 +2592,7 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>157.39789179485877</v>
       </c>
     </row>
@@ -2555,7 +2609,7 @@
       <c r="D52">
         <v>421.15</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>8.5073198766915272</v>
       </c>
     </row>
@@ -2572,7 +2626,7 @@
       <c r="D53">
         <v>421.15</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>25.085366967781024</v>
       </c>
     </row>
@@ -2589,7 +2643,7 @@
       <c r="D54">
         <v>421.15</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>25.59680408646776</v>
       </c>
     </row>
@@ -2606,7 +2660,7 @@
       <c r="D55">
         <v>63.35</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>204.73701046354549</v>
       </c>
     </row>
@@ -2623,7 +2677,7 @@
       <c r="D56">
         <v>44.1</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>467.25394126262637</v>
       </c>
     </row>
@@ -2643,7 +2697,7 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>248.73307674667015</v>
       </c>
     </row>
@@ -2660,7 +2714,7 @@
       <c r="D58">
         <v>13.95</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>74.083537753183251</v>
       </c>
     </row>
@@ -2677,7 +2731,7 @@
       <c r="D59">
         <v>4</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>573.47069896061521</v>
       </c>
     </row>
@@ -2694,7 +2748,7 @@
       <c r="D60">
         <v>54</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>80.170886873161933</v>
       </c>
     </row>
@@ -2711,7 +2765,7 @@
       <c r="D61">
         <v>18</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>166.25448580138513</v>
       </c>
     </row>
@@ -2728,7 +2782,7 @@
       <c r="D62">
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>1035.5229505039156</v>
       </c>
     </row>
@@ -2745,7 +2799,7 @@
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>234.18830405426206</v>
       </c>
     </row>
@@ -2762,7 +2816,7 @@
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>340.03083947028489</v>
       </c>
     </row>
@@ -2779,7 +2833,7 @@
       <c r="D65">
         <v>3</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>89.563866150506101</v>
       </c>
     </row>
@@ -2796,7 +2850,7 @@
       <c r="D66">
         <v>38</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>323.40289607493332</v>
       </c>
     </row>
@@ -2813,7 +2867,7 @@
       <c r="D67">
         <v>101</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>191.92613434424609</v>
       </c>
     </row>
@@ -2830,7 +2884,7 @@
       <c r="D68">
         <v>96</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>378.60068266490396</v>
       </c>
     </row>
@@ -2847,7 +2901,7 @@
       <c r="D69">
         <v>250</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>3.8919117324453905</v>
       </c>
     </row>
@@ -2864,7 +2918,7 @@
       <c r="D70">
         <v>400</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>5.7380749901438444</v>
       </c>
     </row>
@@ -2881,7 +2935,7 @@
       <c r="D71">
         <v>180</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>7.8586679212839616</v>
       </c>
     </row>
@@ -2898,7 +2952,7 @@
       <c r="D72">
         <v>210</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>10.964712861600955</v>
       </c>
     </row>
@@ -2915,7 +2969,7 @@
       <c r="D73">
         <v>120</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>19.122758608457641</v>
       </c>
     </row>
@@ -2932,7 +2986,7 @@
       <c r="D74">
         <v>200</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>42.037636340836436</v>
       </c>
     </row>
@@ -2949,7 +3003,7 @@
       <c r="D75">
         <v>29</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>222.02607989037023</v>
       </c>
     </row>
@@ -2966,7 +3020,7 @@
       <c r="D76">
         <v>7</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>54.436867949973347</v>
       </c>
     </row>
@@ -2983,7 +3037,7 @@
       <c r="D77">
         <v>2</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>63.867269455514105</v>
       </c>
     </row>
@@ -3000,7 +3054,7 @@
       <c r="D78">
         <v>5</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>22.815085123854548</v>
       </c>
     </row>
@@ -3017,7 +3071,7 @@
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>24.249603871390512</v>
       </c>
     </row>
@@ -3034,7 +3088,7 @@
       <c r="D80">
         <v>200</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>11.875320414384653</v>
       </c>
     </row>
@@ -3051,7 +3105,7 @@
       <c r="D81">
         <v>150</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>16.266195189451246</v>
       </c>
     </row>
@@ -3068,7 +3122,7 @@
       <c r="D82">
         <v>40</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>40.066732322482672</v>
       </c>
     </row>
@@ -3085,7 +3139,7 @@
       <c r="D83">
         <v>39</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>207.38151458943787</v>
       </c>
     </row>
@@ -3102,7 +3156,7 @@
       <c r="D84">
         <v>150</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>7.6341345521044195</v>
       </c>
     </row>
@@ -3119,7 +3173,7 @@
       <c r="D85">
         <v>39</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>3.1060449403169947</v>
       </c>
     </row>
@@ -3136,7 +3190,7 @@
       <c r="D86">
         <v>19</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>220.64145744709637</v>
       </c>
     </row>
@@ -3153,7 +3207,7 @@
       <c r="D87">
         <v>4</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>413.51562157232274</v>
       </c>
     </row>
@@ -3170,7 +3224,7 @@
       <c r="D88">
         <v>18</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>184.6786961501731</v>
       </c>
     </row>
@@ -3187,7 +3241,7 @@
       <c r="D89">
         <v>4</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>43.37236247984815</v>
       </c>
     </row>
@@ -3204,7 +3258,7 @@
       <c r="D90">
         <v>6</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>116.00890740942991</v>
       </c>
     </row>
@@ -3221,7 +3275,7 @@
       <c r="D91">
         <v>60</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>55.584482948002119</v>
       </c>
     </row>
@@ -3238,7 +3292,7 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>309.07018267563922</v>
       </c>
     </row>
@@ -3255,7 +3309,7 @@
       <c r="D93">
         <v>4</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>1313.5202097003194</v>
       </c>
     </row>
@@ -3272,7 +3326,7 @@
       <c r="D94">
         <v>1</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>2439.0311449409687</v>
       </c>
     </row>
@@ -3289,7 +3343,7 @@
       <c r="D95">
         <v>10</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>121.17317490055937</v>
       </c>
     </row>
@@ -3306,7 +3360,7 @@
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>31.260034620218423</v>
       </c>
     </row>
@@ -3323,7 +3377,7 @@
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>28.889960167767708</v>
       </c>
     </row>
@@ -3340,7 +3394,7 @@
       <c r="D98">
         <v>70</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>31.197664239890777</v>
       </c>
     </row>
@@ -3357,7 +3411,7 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>128.63267238774637</v>
       </c>
     </row>
@@ -3374,7 +3428,7 @@
       <c r="D100">
         <v>4</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>50.270526544086287</v>
       </c>
     </row>
@@ -3391,7 +3445,7 @@
       <c r="D101">
         <v>2</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>756.35312815735199</v>
       </c>
     </row>
@@ -3408,7 +3462,7 @@
       <c r="D102">
         <v>2</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>1349.4455487690459</v>
       </c>
     </row>
@@ -3425,7 +3479,7 @@
       <c r="D103">
         <v>4</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>195.60598678357746</v>
       </c>
     </row>
@@ -3442,7 +3496,7 @@
       <c r="D104">
         <v>4</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>597.29618424577768</v>
       </c>
     </row>
@@ -3459,7 +3513,7 @@
       <c r="D105">
         <v>42</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>57.318379521110799</v>
       </c>
     </row>
@@ -3476,7 +3530,7 @@
       <c r="D106">
         <v>10.55</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>618.50211355717886</v>
       </c>
     </row>
@@ -3493,7 +3547,7 @@
       <c r="D107">
         <v>11</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>149.37706088472291</v>
       </c>
     </row>
@@ -3510,7 +3564,7 @@
       <c r="D108">
         <v>8</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>519.63258666178729</v>
       </c>
     </row>
@@ -3527,7 +3581,7 @@
       <c r="D109">
         <v>5</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>232.91594829557798</v>
       </c>
     </row>
@@ -3544,7 +3598,7 @@
       <c r="D110">
         <v>8</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>694.59397755691248</v>
       </c>
     </row>
@@ -3561,7 +3615,7 @@
       <c r="D111">
         <v>1</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>86.595036046909939</v>
       </c>
     </row>
@@ -3578,7 +3632,7 @@
       <c r="D112">
         <v>4</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>231.54379992836968</v>
       </c>
     </row>
@@ -3595,7 +3649,7 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>1135.2781367999596</v>
       </c>
     </row>
@@ -3612,7 +3666,7 @@
       <c r="D114">
         <v>3</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>472.48057913408348</v>
       </c>
     </row>
@@ -3629,7 +3683,7 @@
       <c r="D115">
         <v>14</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>295.77281758978415</v>
       </c>
     </row>
@@ -3646,7 +3700,7 @@
       <c r="D116">
         <v>21</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="1">
         <v>13.110253944872133</v>
       </c>
     </row>
@@ -3663,7 +3717,7 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>298.66680323698711</v>
       </c>
     </row>
@@ -3680,7 +3734,7 @@
       <c r="D118">
         <v>4</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>249.03245457224284</v>
       </c>
     </row>
@@ -3697,7 +3751,7 @@
       <c r="D119">
         <v>27</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>1488.1697486938062</v>
       </c>
     </row>
@@ -3714,7 +3768,7 @@
       <c r="D120">
         <v>36.28</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>369.13285893116665</v>
       </c>
     </row>
@@ -3731,7 +3785,7 @@
       <c r="D121">
         <v>22.72</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>1179.3240993873465</v>
       </c>
     </row>
@@ -3748,7 +3802,7 @@
       <c r="D122">
         <v>27</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>158.23365489124927</v>
       </c>
     </row>
@@ -3765,7 +3819,7 @@
       <c r="D123">
         <v>4</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>2912.3599612475086</v>
       </c>
     </row>
@@ -3782,7 +3836,7 @@
       <c r="D124">
         <v>208</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>15.592595081912622</v>
       </c>
     </row>
@@ -3799,7 +3853,7 @@
       <c r="D125">
         <v>104</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>11.800475957991473</v>
       </c>
     </row>
@@ -3816,7 +3870,7 @@
       <c r="D126">
         <v>20</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>273.44422143248528</v>
       </c>
     </row>
@@ -3833,7 +3887,7 @@
       <c r="D127">
         <v>5</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>127.54742777004525</v>
       </c>
     </row>
@@ -3850,7 +3904,7 @@
       <c r="D128">
         <v>38</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>35.56359086282631</v>
       </c>
     </row>
@@ -3867,7 +3921,7 @@
       <c r="D129">
         <v>22</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>21.954373875332973</v>
       </c>
     </row>
@@ -3884,7 +3938,7 @@
       <c r="D130">
         <v>8</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>23.151885177623861</v>
       </c>
     </row>
@@ -3901,7 +3955,7 @@
       <c r="D131">
         <v>8</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
         <v>284.8081047281832</v>
       </c>
     </row>
@@ -3918,7 +3972,7 @@
       <c r="D132">
         <v>24</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
         <v>28.553160113998395</v>
       </c>
     </row>
@@ -3935,7 +3989,7 @@
       <c r="D133">
         <v>8</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>43.37236247984815</v>
       </c>
     </row>
@@ -3952,7 +4006,7 @@
       <c r="D134">
         <v>2</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>99.792608524240777</v>
       </c>
     </row>
@@ -3969,7 +4023,7 @@
       <c r="D135">
         <v>4</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>20.432536595338298</v>
       </c>
     </row>
@@ -3986,7 +4040,7 @@
       <c r="D136">
         <v>2</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>61.122972721097476</v>
       </c>
     </row>
@@ -4003,7 +4057,7 @@
       <c r="D137">
         <v>170</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>30.212212230713895</v>
       </c>
     </row>
@@ -4020,7 +4074,7 @@
       <c r="D138">
         <v>26.48</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>239.15298632834302</v>
       </c>
     </row>
@@ -4040,7 +4094,7 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>116.00890740942991</v>
       </c>
     </row>
@@ -4060,7 +4114,7 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>742.20752589904077</v>
       </c>
     </row>
@@ -4077,7 +4131,7 @@
       <c r="D141">
         <v>0.22500000000000001</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>673.83711498387038</v>
       </c>
     </row>
@@ -4094,13 +4148,13 @@
       <c r="D142">
         <v>453</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>10.38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
